--- a/biology/Botanique/Ceiba_(genre)/Ceiba_(genre).xlsx
+++ b/biology/Botanique/Ceiba_(genre)/Ceiba_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceiba est un genre d'arbres des régions tropicales de la famille des Bombacaceae, selon la classification classique, ou de celle des Malvaceae, selon la classification phylogénétique. Ce genre compte une dizaine d'espèces. Certaines d'entre elles sont appelées « fromagers ».
 En Afrique, c'est souvent un grand fromager qui, dans les villages, est élu comme « arbre à palabres ». Ces arbres devraient leur nom au fait que leur bois blanc et très tendre serait aussi facile à couper que du fromage et qu'il était utilisé dans la fabrication de boîtes pour les fromages. Il est plus vraisemblable que le nom vienne de ses fruits assez gros recouvert du duvet kapok.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de grands arbres pouvant atteindre une hauteur de 70 m, ce qui les fait émerger au-dessus des forêts tropicales. Leur tronc épais est généralement pourvu d'ailes, parfois très développées, qui font office de contreforts. L'écorce est grise et lisse. Le houppier est arrondi en forme de parapluie et procure une ombre recherchée. Les jeunes branches sont munies d'épines. 
 Les feuilles, alternes, sont composées-palmées, à huit folioles entières. 
@@ -547,7 +561,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ceiba acuminata,(S. Watson) Rose
 Ceiba aesculifolia (Kunth) Britten &amp; Baker
@@ -594,7 +610,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceiba rosea est en danger et est par conséquent une espèce protégée.
 </t>
@@ -625,9 +643,11 @@
           <t>Caractéristiques du bois</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>mécaniques et physiques[1]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>mécaniques et physiques
 densité : 0.32
 aubier non distinct
 capacité de compression : 22 mPa
